--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>84.39059077728059</v>
+        <v>234.5813823333333</v>
       </c>
       <c r="H2">
-        <v>84.39059077728059</v>
+        <v>703.744147</v>
       </c>
       <c r="I2">
-        <v>0.9511510643721078</v>
+        <v>0.9782746109134588</v>
       </c>
       <c r="J2">
-        <v>0.9511510643721078</v>
+        <v>0.9782746109134588</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.8268666759574</v>
+        <v>40.61064433333333</v>
       </c>
       <c r="N2">
-        <v>24.8268666759574</v>
+        <v>121.831933</v>
       </c>
       <c r="O2">
-        <v>0.9124858622783335</v>
+        <v>0.9365419382944963</v>
       </c>
       <c r="P2">
-        <v>0.9124858622783335</v>
+        <v>0.9365419382944962</v>
       </c>
       <c r="Q2">
-        <v>2095.153945932826</v>
+        <v>9526.501085160682</v>
       </c>
       <c r="R2">
-        <v>2095.153945932826</v>
+        <v>85738.50976644615</v>
       </c>
       <c r="S2">
-        <v>0.8679118991305376</v>
+        <v>0.9161952002891849</v>
       </c>
       <c r="T2">
-        <v>0.8679118991305376</v>
+        <v>0.9161952002891848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,57 +590,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>84.39059077728059</v>
+        <v>234.5813823333333</v>
       </c>
       <c r="H3">
-        <v>84.39059077728059</v>
+        <v>703.744147</v>
       </c>
       <c r="I3">
-        <v>0.9511510643721078</v>
+        <v>0.9782746109134588</v>
       </c>
       <c r="J3">
-        <v>0.9511510643721078</v>
+        <v>0.9782746109134588</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.38107999180644</v>
+        <v>2.454549333333333</v>
       </c>
       <c r="N3">
-        <v>2.38107999180644</v>
+        <v>7.363648</v>
       </c>
       <c r="O3">
-        <v>0.08751413772166641</v>
+        <v>0.05660556309845621</v>
       </c>
       <c r="P3">
-        <v>0.08751413772166641</v>
+        <v>0.05660556309845621</v>
       </c>
       <c r="Q3">
-        <v>200.9407471965079</v>
+        <v>575.791575618695</v>
       </c>
       <c r="R3">
-        <v>200.9407471965079</v>
+        <v>5182.124180568256</v>
       </c>
       <c r="S3">
-        <v>0.08323916524157024</v>
+        <v>0.05537578521567949</v>
       </c>
       <c r="T3">
-        <v>0.08323916524157024</v>
+        <v>0.05537578521567948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.01578921743332</v>
+        <v>234.5813823333333</v>
       </c>
       <c r="H4">
-        <v>2.01578921743332</v>
+        <v>703.744147</v>
       </c>
       <c r="I4">
-        <v>0.02271959518297029</v>
+        <v>0.9782746109134588</v>
       </c>
       <c r="J4">
-        <v>0.02271959518297029</v>
+        <v>0.9782746109134588</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>24.8268666759574</v>
+        <v>0.2971403333333333</v>
       </c>
       <c r="N4">
-        <v>24.8268666759574</v>
+        <v>0.891421</v>
       </c>
       <c r="O4">
-        <v>0.9124858622783335</v>
+        <v>0.006852498607047613</v>
       </c>
       <c r="P4">
-        <v>0.9124858622783335</v>
+        <v>0.006852498607047612</v>
       </c>
       <c r="Q4">
-        <v>50.04573014804954</v>
+        <v>69.70359014032077</v>
       </c>
       <c r="R4">
-        <v>50.04573014804954</v>
+        <v>627.3323112628871</v>
       </c>
       <c r="S4">
-        <v>0.02073130940114731</v>
+        <v>0.006703625408594522</v>
       </c>
       <c r="T4">
-        <v>0.02073130940114731</v>
+        <v>0.006703625408594521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.01578921743332</v>
+        <v>2.110333333333333</v>
       </c>
       <c r="H5">
-        <v>2.01578921743332</v>
+        <v>6.331</v>
       </c>
       <c r="I5">
-        <v>0.02271959518297029</v>
+        <v>0.008800721950008783</v>
       </c>
       <c r="J5">
-        <v>0.02271959518297029</v>
+        <v>0.008800721950008783</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.38107999180644</v>
+        <v>40.61064433333333</v>
       </c>
       <c r="N5">
-        <v>2.38107999180644</v>
+        <v>121.831933</v>
       </c>
       <c r="O5">
-        <v>0.08751413772166641</v>
+        <v>0.9365419382944963</v>
       </c>
       <c r="P5">
-        <v>0.08751413772166641</v>
+        <v>0.9365419382944962</v>
       </c>
       <c r="Q5">
-        <v>4.799755373329639</v>
+        <v>85.70199642477778</v>
       </c>
       <c r="R5">
-        <v>4.799755373329639</v>
+        <v>771.317967823</v>
       </c>
       <c r="S5">
-        <v>0.00198828578182297</v>
+        <v>0.008242245193452144</v>
       </c>
       <c r="T5">
-        <v>0.00198828578182297</v>
+        <v>0.008242245193452144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.3183178354779</v>
+        <v>2.110333333333333</v>
       </c>
       <c r="H6">
-        <v>2.3183178354779</v>
+        <v>6.331</v>
       </c>
       <c r="I6">
-        <v>0.02612934044492184</v>
+        <v>0.008800721950008783</v>
       </c>
       <c r="J6">
-        <v>0.02612934044492184</v>
+        <v>0.008800721950008783</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.8268666759574</v>
+        <v>2.454549333333333</v>
       </c>
       <c r="N6">
-        <v>24.8268666759574</v>
+        <v>7.363648</v>
       </c>
       <c r="O6">
-        <v>0.9124858622783335</v>
+        <v>0.05660556309845621</v>
       </c>
       <c r="P6">
-        <v>0.9124858622783335</v>
+        <v>0.05660556309845621</v>
       </c>
       <c r="Q6">
-        <v>57.55656781390397</v>
+        <v>5.179917276444443</v>
       </c>
       <c r="R6">
-        <v>57.55656781390397</v>
+        <v>46.61925548799999</v>
       </c>
       <c r="S6">
-        <v>0.02384265374664864</v>
+        <v>0.0004981698216531907</v>
       </c>
       <c r="T6">
-        <v>0.02384265374664864</v>
+        <v>0.0004981698216531907</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +835,241 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.110333333333333</v>
+      </c>
+      <c r="H7">
+        <v>6.331</v>
+      </c>
+      <c r="I7">
+        <v>0.008800721950008783</v>
+      </c>
+      <c r="J7">
+        <v>0.008800721950008783</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2971403333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.891421</v>
+      </c>
+      <c r="O7">
+        <v>0.006852498607047613</v>
+      </c>
+      <c r="P7">
+        <v>0.006852498607047612</v>
+      </c>
+      <c r="Q7">
+        <v>0.6270651501111111</v>
+      </c>
+      <c r="R7">
+        <v>5.643586351</v>
+      </c>
+      <c r="S7">
+        <v>6.030693490344854E-05</v>
+      </c>
+      <c r="T7">
+        <v>6.030693490344853E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.099218</v>
+      </c>
+      <c r="H8">
+        <v>9.297654</v>
+      </c>
+      <c r="I8">
+        <v>0.01292466713653245</v>
+      </c>
+      <c r="J8">
+        <v>0.01292466713653245</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>40.61064433333333</v>
+      </c>
+      <c r="N8">
+        <v>121.831933</v>
+      </c>
+      <c r="O8">
+        <v>0.9365419382944963</v>
+      </c>
+      <c r="P8">
+        <v>0.9365419382944962</v>
+      </c>
+      <c r="Q8">
+        <v>125.8612399094647</v>
+      </c>
+      <c r="R8">
+        <v>1132.751159185182</v>
+      </c>
+      <c r="S8">
+        <v>0.01210449281185928</v>
+      </c>
+      <c r="T8">
+        <v>0.01210449281185928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.3183178354779</v>
-      </c>
-      <c r="H7">
-        <v>2.3183178354779</v>
-      </c>
-      <c r="I7">
-        <v>0.02612934044492184</v>
-      </c>
-      <c r="J7">
-        <v>0.02612934044492184</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.38107999180644</v>
-      </c>
-      <c r="N7">
-        <v>2.38107999180644</v>
-      </c>
-      <c r="O7">
-        <v>0.08751413772166641</v>
-      </c>
-      <c r="P7">
-        <v>0.08751413772166641</v>
-      </c>
-      <c r="Q7">
-        <v>5.520100212704442</v>
-      </c>
-      <c r="R7">
-        <v>5.520100212704442</v>
-      </c>
-      <c r="S7">
-        <v>0.002286686698273198</v>
-      </c>
-      <c r="T7">
-        <v>0.002286686698273198</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.099218</v>
+      </c>
+      <c r="H9">
+        <v>9.297654</v>
+      </c>
+      <c r="I9">
+        <v>0.01292466713653245</v>
+      </c>
+      <c r="J9">
+        <v>0.01292466713653245</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.454549333333333</v>
+      </c>
+      <c r="N9">
+        <v>7.363648</v>
+      </c>
+      <c r="O9">
+        <v>0.05660556309845621</v>
+      </c>
+      <c r="P9">
+        <v>0.05660556309845621</v>
+      </c>
+      <c r="Q9">
+        <v>7.607183475754666</v>
+      </c>
+      <c r="R9">
+        <v>68.46465128179199</v>
+      </c>
+      <c r="S9">
+        <v>0.0007316080611235312</v>
+      </c>
+      <c r="T9">
+        <v>0.0007316080611235311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.099218</v>
+      </c>
+      <c r="H10">
+        <v>9.297654</v>
+      </c>
+      <c r="I10">
+        <v>0.01292466713653245</v>
+      </c>
+      <c r="J10">
+        <v>0.01292466713653245</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2971403333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.891421</v>
+      </c>
+      <c r="O10">
+        <v>0.006852498607047613</v>
+      </c>
+      <c r="P10">
+        <v>0.006852498607047612</v>
+      </c>
+      <c r="Q10">
+        <v>0.9209026695926666</v>
+      </c>
+      <c r="R10">
+        <v>8.288124026334</v>
+      </c>
+      <c r="S10">
+        <v>8.85662635496427E-05</v>
+      </c>
+      <c r="T10">
+        <v>8.856626354964269E-05</v>
       </c>
     </row>
   </sheetData>
